--- a/通信说明-MS20250521.xlsx
+++ b/通信说明-MS20250521.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLSK\AutoScrewSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD2788-1563-4FB9-ABC3-1023B431445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21904CD9-466A-4FE7-B361-C0AF9C2716A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实时数据地址" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="167">
   <si>
     <t>参数</t>
   </si>
@@ -104,9 +104,6 @@
     <t>恢复出厂</t>
   </si>
   <si>
-    <t>单位0.01r   返回100表示1r</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -218,12 +215,6 @@
     <t>拧紧结果</t>
   </si>
   <si>
-    <t>10208~11207</t>
-  </si>
-  <si>
-    <t>11208~12207</t>
-  </si>
-  <si>
     <t>扭力曲线 圈数数据</t>
   </si>
   <si>
@@ -233,13 +224,7 @@
     <t>扭力曲线采集的点数</t>
   </si>
   <si>
-    <t>1000个地址循环上传，数据之间 间隔1ms</t>
-  </si>
-  <si>
     <t>状态位</t>
-  </si>
-  <si>
-    <t>bit0--BUSY;bit1--OK;bit2--ERR;</t>
   </si>
   <si>
     <t>螺丝总数</t>
@@ -480,14 +465,7 @@
     <t>偏移角度</t>
   </si>
   <si>
-    <t>0：就绪；1：运行中；2：ok；3：NG；4：未完成；</t>
-  </si>
-  <si>
     <t>报警信息</t>
-  </si>
-  <si>
-    <t>0：无报警；1：滑牙；2：浮高；3：过扭力；
-4：编码器报警；5：过压；6：扭力上限报警；7：扭力下限报警;8：电批报警；</t>
   </si>
   <si>
     <t>单位：mN.M</t>
@@ -570,12 +548,37 @@
     <t>目标扭力mN.M</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>10208~11207</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11208~12207</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：就绪；1：运行中；2：ok；3：NG；4：未完成；</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位0.01r   返回100表示1r</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：无报警；1：滑牙；2：浮高；3：过扭力；
+4：编码器报警；5：过压；6：扭力上限报警；7：扭力下限报警;8：电批报警；</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit0--BUSY;bit1--OK;bit2--ERR;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -693,6 +696,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -728,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +777,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,12 +793,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1119,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1129,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1140,10 +1156,10 @@
         <v>3900</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1157,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>15</v>
@@ -1168,10 +1184,10 @@
         <v>3896</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
@@ -1182,11 +1198,11 @@
         <v>4614</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>15</v>
@@ -1197,10 +1213,10 @@
         <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -1211,10 +1227,10 @@
         <v>3899</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
+        <v>56</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1223,10 +1239,10 @@
         <v>3889</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
@@ -1241,39 +1257,39 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
+      <c r="A11" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>165</v>
+      <c r="D11" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>59</v>
+      <c r="A12" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
+      <c r="D12" s="29" t="s">
+        <v>158</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -1284,11 +1300,11 @@
         <v>4631</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>65</v>
+      <c r="D13" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -1299,7 +1315,7 @@
         <v>4635</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="9"/>
       <c r="E14" s="4" t="s">
@@ -1329,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1349,56 +1365,56 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>5888</v>
@@ -1425,44 +1441,44 @@
         <v>6336</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="24">
         <v>5889</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="24">
         <v>5953</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>6017</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="24">
         <v>6081</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="24">
         <v>6145</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="24">
         <v>6209</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="24">
         <v>6273</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="24">
         <v>6337</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>5925</v>
@@ -1491,10 +1507,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>5926</v>
@@ -1523,10 +1539,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>5893</v>
@@ -1555,10 +1571,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>5921</v>
@@ -1587,10 +1603,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>5894</v>
@@ -1619,10 +1635,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>5895</v>
@@ -1651,10 +1667,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>5898</v>
@@ -1683,10 +1699,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>5899</v>
@@ -1715,10 +1731,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>5917</v>
@@ -1747,10 +1763,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>5918</v>
@@ -1779,10 +1795,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>5919</v>
@@ -1810,57 +1826,57 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="27">
+      <c r="A16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="24">
         <v>5920</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="24">
         <v>5984</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <v>6048</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="24">
         <v>6112</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="24">
         <v>6176</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="24">
         <v>6240</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="24">
         <v>6304</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <v>6368</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>5912</v>
@@ -1889,10 +1905,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>5913</v>
@@ -1921,10 +1937,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>5914</v>
@@ -1953,10 +1969,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>5915</v>
@@ -1984,25 +2000,25 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="A22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" s="12">
         <v>5900</v>
@@ -2032,10 +2048,10 @@
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C24" s="12">
         <v>5901</v>
@@ -2065,10 +2081,10 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" s="12">
         <v>5902</v>
@@ -2098,10 +2114,10 @@
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="12">
         <v>5903</v>
@@ -2131,10 +2147,10 @@
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C27" s="12">
         <v>5904</v>
@@ -2164,10 +2180,10 @@
     </row>
     <row r="28" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28" s="12">
         <v>5905</v>
@@ -2197,10 +2213,10 @@
     </row>
     <row r="29" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C29" s="12">
         <v>5906</v>
@@ -2230,10 +2246,10 @@
     </row>
     <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C30" s="12">
         <v>5907</v>
@@ -2263,10 +2279,10 @@
     </row>
     <row r="31" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C31" s="12">
         <v>5908</v>
@@ -2296,10 +2312,10 @@
     </row>
     <row r="32" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C32" s="12">
         <v>5909</v>
@@ -2328,26 +2344,26 @@
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="A33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C34" s="12">
         <v>5916</v>
@@ -2377,10 +2393,10 @@
     </row>
     <row r="35" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C35" s="12">
         <v>5922</v>
@@ -2409,25 +2425,25 @@
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="A36" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C37" s="12">
         <v>5927</v>
@@ -2506,10 +2522,10 @@
     <row r="67" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="14">
         <v>4110</v>
@@ -2523,10 +2539,10 @@
     </row>
     <row r="69" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="14">
         <v>4111</v>
@@ -2540,10 +2556,10 @@
     </row>
     <row r="70" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="14">
         <v>4112</v>
@@ -2557,10 +2573,10 @@
     </row>
     <row r="71" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="14">
         <v>4113</v>
@@ -2574,10 +2590,10 @@
     </row>
     <row r="72" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="14">
         <v>4114</v>
@@ -2591,10 +2607,10 @@
     </row>
     <row r="73" spans="1:5" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="15">
         <v>4115</v>
@@ -2608,10 +2624,10 @@
     </row>
     <row r="74" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" s="15">
         <v>4116</v>
@@ -2625,10 +2641,10 @@
     </row>
     <row r="75" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="C75" s="15">
         <v>4117</v>
@@ -2642,10 +2658,10 @@
     </row>
     <row r="76" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="C76" s="15">
         <v>4118</v>
@@ -2659,10 +2675,10 @@
     </row>
     <row r="77" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="C77" s="15">
         <v>4119</v>
@@ -2676,10 +2692,10 @@
     </row>
     <row r="78" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="14">
         <v>4120</v>
@@ -2690,10 +2706,10 @@
     </row>
     <row r="79" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="14">
         <v>4121</v>
@@ -2704,10 +2720,10 @@
     </row>
     <row r="80" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="14">
         <v>4122</v>
@@ -2718,10 +2734,10 @@
     </row>
     <row r="81" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="14">
         <v>4123</v>
@@ -2732,10 +2748,10 @@
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="14">
         <v>4124</v>
@@ -2746,10 +2762,10 @@
     </row>
     <row r="83" spans="1:6" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" s="15">
         <v>4125</v>
@@ -2760,10 +2776,10 @@
     </row>
     <row r="84" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" s="15">
         <v>4126</v>
@@ -2774,10 +2790,10 @@
     </row>
     <row r="85" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="15">
         <v>4127</v>
@@ -2788,10 +2804,10 @@
     </row>
     <row r="86" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="15">
         <v>4128</v>
@@ -2802,10 +2818,10 @@
     </row>
     <row r="87" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C87" s="15">
         <v>4129</v>
@@ -2816,10 +2832,10 @@
     </row>
     <row r="91" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="14">
         <v>4130</v>
@@ -2836,10 +2852,10 @@
     </row>
     <row r="92" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C92" s="14">
         <v>4131</v>
@@ -2856,10 +2872,10 @@
     </row>
     <row r="93" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C93" s="14">
         <v>4132</v>
@@ -2876,10 +2892,10 @@
     </row>
     <row r="94" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94" s="14">
         <v>4133</v>
@@ -2893,10 +2909,10 @@
     </row>
     <row r="95" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C95" s="14">
         <v>4134</v>
@@ -2910,10 +2926,10 @@
     </row>
     <row r="96" spans="1:6" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="15">
         <v>4135</v>
@@ -2924,10 +2940,10 @@
     </row>
     <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C97" s="15">
         <v>4136</v>
@@ -2938,10 +2954,10 @@
     </row>
     <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="C98" s="15">
         <v>4137</v>
@@ -2952,10 +2968,10 @@
     </row>
     <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="C99" s="15">
         <v>4138</v>
@@ -2966,10 +2982,10 @@
     </row>
     <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="C100" s="15">
         <v>4139</v>
@@ -2980,10 +2996,10 @@
     </row>
     <row r="101" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" s="14">
         <v>4140</v>
@@ -2994,10 +3010,10 @@
     </row>
     <row r="102" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="14">
         <v>4141</v>
@@ -3008,10 +3024,10 @@
     </row>
     <row r="103" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" s="14">
         <v>4142</v>
@@ -3022,10 +3038,10 @@
     </row>
     <row r="104" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" s="14">
         <v>4143</v>
@@ -3036,10 +3052,10 @@
     </row>
     <row r="105" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C105" s="14">
         <v>4144</v>
@@ -3050,10 +3066,10 @@
     </row>
     <row r="106" spans="1:4" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" s="15">
         <v>4145</v>
@@ -3064,10 +3080,10 @@
     </row>
     <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C107" s="15">
         <v>4146</v>
@@ -3078,10 +3094,10 @@
     </row>
     <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" s="15">
         <v>4147</v>
@@ -3092,10 +3108,10 @@
     </row>
     <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="15">
         <v>4148</v>
@@ -3106,10 +3122,10 @@
     </row>
     <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C110" s="15">
         <v>4149</v>
@@ -3137,7 +3153,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B12"/>
+      <selection activeCell="C7" sqref="C7:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3181,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,85 +3189,85 @@
         <v>3890</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>523</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>81</v>
+      <c r="B4" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>524</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>526</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>4631</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>4631</v>
-      </c>
-      <c r="B7" s="24" t="s">
+    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="7" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3270,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3285,7 +3301,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3294,33 +3310,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3">
         <v>2562</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="3">
         <v>6</v>
@@ -3328,16 +3344,16 @@
     </row>
     <row r="4" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3">
         <v>2563</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -3353,41 +3369,41 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,20 +3413,20 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>162</v>
+        <v>42</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3420,33 +3436,33 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>163</v>
+        <v>91</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,58 +3478,58 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="17"/>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>164</v>
+        <v>117</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="364" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>10</v>
@@ -3532,7 +3548,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3543,13 +3559,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,10 +3573,10 @@
         <v>3895</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3568,10 +3584,10 @@
         <v>10208</v>
       </c>
       <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,10 +3595,10 @@
         <v>11207</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,10 +3606,10 @@
         <v>11208</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,10 +3617,10 @@
         <v>12207</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
